--- a/trunk/ThueKenh/WebContent/files/templates/giamtrumatlienlac.xlsx
+++ b/trunk/ThueKenh/WebContent/files/templates/giamtrumatlienlac.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>STT</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>VNPT ###</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thời gian MLL thực tế giảm trừ (phút)</t>
   </si>
 </sst>
 </file>
@@ -305,24 +308,6 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -332,6 +317,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -349,6 +337,21 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -666,175 +669,186 @@
     <col min="8" max="8" width="17.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" style="3" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="4"/>
-    <col min="11" max="11" width="19.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.7109375" style="4" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" s="5" customFormat="1">
+      <c r="A1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1">
-      <c r="A2" s="22" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1">
+      <c r="A2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-    </row>
-    <row r="3" spans="1:14" s="5" customFormat="1">
-      <c r="A3" s="19" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1">
+      <c r="A3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1">
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" s="5" customFormat="1">
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="23" t="s">
+      <c r="I4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-    </row>
-    <row r="5" spans="1:14" s="5" customFormat="1">
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" s="5" customFormat="1">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" ht="50.25" customHeight="1">
+      <c r="A6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-    </row>
-    <row r="8" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A8" s="20" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.25" customHeight="1">
+      <c r="A8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="M8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="N8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="O8" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="21"/>
+    <row r="9" spans="1:15" s="5" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A9" s="15"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="7">
         <v>1</v>
       </c>
@@ -848,11 +862,12 @@
       <c r="I10" s="9"/>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="10"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="7">
         <v>2</v>
       </c>
@@ -866,129 +881,136 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="7"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="16" t="s">
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" s="12" customFormat="1">
-      <c r="A13" s="14" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" s="12" customFormat="1">
+      <c r="A13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" s="12" customFormat="1">
-      <c r="A14" s="14" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="13"/>
+    </row>
+    <row r="14" spans="1:15" s="12" customFormat="1">
+      <c r="A14" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" s="12" customFormat="1">
-      <c r="A15" s="15" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="15" spans="1:15" s="12" customFormat="1">
+      <c r="A15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="19" t="s">
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="11"/>
-      <c r="J17" s="19" t="s">
+      <c r="J17" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="N8:N9"/>
+  <mergeCells count="28">
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A14:N14"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="A12:N12"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="J17:O17"/>
+    <mergeCell ref="O8:O9"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="I3:N3"/>
-    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="A6:O6"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
     <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="A13:M13"/>
-    <mergeCell ref="A14:M14"/>
-    <mergeCell ref="A15:N15"/>
-    <mergeCell ref="A12:M12"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="K8:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
